--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_train.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC2E0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC970&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC510&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC580&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE810&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE500&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD230&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF290&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBCA50&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD770&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC200&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC740&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC6D0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC820&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD4D0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC4A0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC5F0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD000&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF220&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD150&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD620&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF060&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC120&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC190&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF0D0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC0B0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEC70&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF1B0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF8B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB90EB0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB83ED0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8EB0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64ADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8C80&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8C10&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8B30&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64ACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8AC0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8A50&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA86D0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8510&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8430&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA83C0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61D150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABED0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAEA0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C54381316</t>
+          <t>C63084333</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
+          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
+          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>251.29</v>
+        <v>277.32</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>96.86</v>
+        <v>123.22</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6483C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB4C0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C63084333</t>
+          <t>C02502843</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
+          <t>Oc1cccc([C@@H](Nc2cccc[nH+]2)c2ccc3cccnc3c2O)c1Cl</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
+          <t>Oc1cccc([C@@H](Nc2cccc[nH+]2)c2ccc3cccnc3c2O)c1Cl</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>277.32</v>
+        <v>378.84</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>123.22</v>
+        <v>79.52</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABB50&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C13282089</t>
+          <t>C04301275</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
+          <t>O=[N+]([O-])C(=C1NCCN1)C(SCCO)=C(Cl)Cl</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
+          <t>O=[N+]([O-])C(=C1NCCN1)C(SCCO)=C(Cl)Cl</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>409.27</v>
+        <v>300.17</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>82.98</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6485F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAAB0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C02502843</t>
+          <t>C44257213</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oc1cccc([C@@H](Nc2cccc[nH+]2)c2ccc3cccnc3c2O)c1Cl</t>
+          <t>O=S(=O)(NCc1cn[nH]c1)c1cncc(C#CCCO)c1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Oc1cccc([C@@H](Nc2cccc[nH+]2)c2ccc3cccnc3c2O)c1Cl</t>
+          <t>O=S(=O)(NCc1cn[nH]c1)c1cncc(C#CCCO)c1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>378.84</v>
+        <v>306.35</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>79.52</v>
+        <v>107.97</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB7D0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C04301275</t>
+          <t>C42169910</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C(=C1NCCN1)C(SCCO)=C(Cl)Cl</t>
+          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>O=[N+]([O-])C(=C1NCCN1)C(SCCO)=C(Cl)Cl</t>
+          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>300.17</v>
+        <v>269.37</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>87.43000000000001</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB680&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C44257213</t>
+          <t>C55024355</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCc1cn[nH]c1)c1cncc(C#CCCO)c1</t>
+          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=S(=O)(NCc1cn[nH]c1)c1cncc(C#CCCO)c1</t>
+          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>306.35</v>
+        <v>299.38</v>
       </c>
       <c r="H50" t="n">
         <v>3</v>
@@ -3851,13 +3851,13 @@
         <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>107.97</v>
+        <v>106.07</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA420&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C42169910</t>
+          <t>C50200181</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
+          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
+          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>269.37</v>
+        <v>327.43</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>92.04000000000001</v>
+        <v>97.87</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAACE0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C55024355</t>
+          <t>C35929501</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
+          <t>NS(=O)(=O)Oc1ccc2c(c1)OC(=O)[C@@H]1CCCCC[C@H]21</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
+          <t>NS(=O)(=O)Oc1ccc2c(c1)OC(=O)[C@@H]1CCCCC[C@H]21</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>299.38</v>
+        <v>311.36</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>106.07</v>
+        <v>95.69</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB140&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C50200181</t>
+          <t>C39381113</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
+          <t>CC1(C)CC2=C3C(=O)N=C([N-][NH3+])N=C3S[C@@H]2CO1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
+          <t>CC1(C)CC2=C3C(=O)N=C([N-][NH3+])N=C3S[C@@H]2CO1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4043,25 +4043,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>327.43</v>
+        <v>266.33</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>97.87</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB060&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C20650058</t>
+          <t>C55175448</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
+          <t>Cc1nc(N)sc1C(=O)Nc1c(C)nn(C)c1C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
+          <t>Cc1nc(N)sc1C(=O)Nc1c(C)nn(C)c1C</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4111,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>396.52</v>
+        <v>265.34</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
         <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>83.64</v>
+        <v>85.83</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAADC0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C35929501</t>
+          <t>C39272180</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)Oc1ccc2c(c1)OC(=O)[C@@H]1CCCCC[C@H]21</t>
+          <t>[NH-]C1=N[C@@H](Nc2ccc(Cl)c(Cl)c2)C2=NC=NC2=[NH+]1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)Oc1ccc2c(c1)OC(=O)[C@@H]1CCCCC[C@H]21</t>
+          <t>[NH-]C1=N[C@@H](Nc2ccc(Cl)c(Cl)c2)C2=NC=NC2=[NH+]1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,13 +4179,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>311.36</v>
+        <v>295.13</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>2</v>
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>95.69</v>
+        <v>86.88</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABC30&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C39381113</t>
+          <t>C34927019</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CC1(C)CC2=C3C(=O)N=C([N-][NH3+])N=C3S[C@@H]2CO1</t>
+          <t>[H]/N=C1\NC(=S)N[C@H](c2cccc(C)n2)N1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CC1(C)CC2=C3C(=O)N=C([N-][NH3+])N=C3S[C@@H]2CO1</t>
+          <t>[H]/N=C1\NC(=S)N[C@H](c2cccc(C)n2)N1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>266.33</v>
+        <v>221.29</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>92.76000000000001</v>
+        <v>72.83</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD649EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA8F0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C55175448</t>
+          <t>C62725980</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cc1nc(N)sc1C(=O)Nc1c(C)nn(C)c1C</t>
+          <t>Cc1[nH]ncc1S(=O)(=O)/N=c1\cc[nH]cc1N</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cc1nc(N)sc1C(=O)Nc1c(C)nn(C)c1C</t>
+          <t>Cc1[nH]ncc1S(=O)(=O)/N=c1\cc[nH]cc1N</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>265.34</v>
+        <v>253.29</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
         <v>4</v>
@@ -4333,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>85.83</v>
+        <v>116.99</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6480B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA650&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C39272180</t>
+          <t>C17109394</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[NH-]C1=N[C@@H](Nc2ccc(Cl)c(Cl)c2)C2=NC=NC2=[NH+]1</t>
+          <t>CC1=C[C@](C)([C@]2(C)C=C(C)NC(=O)N2)NC(=O)N1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[NH-]C1=N[C@@H](Nc2ccc(Cl)c(Cl)c2)C2=NC=NC2=[NH+]1</t>
+          <t>CC1=C[C@@](C)([C@@]2(C)C=C(C)NC(=O)N2)NC(=O)N1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>295.13</v>
+        <v>250.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>86.88</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA570&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C34927019</t>
+          <t>C19219727</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[H]/N=C1\NC(=S)N[C@H](c2cccc(C)n2)N1</t>
+          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[H]/N=C1\NC(=S)N[C@H](c2cccc(C)n2)N1</t>
+          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>221.29</v>
+        <v>443.57</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>72.83</v>
+        <v>69.92</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABF40&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C17109394</t>
+          <t>C39422239</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CC1=C[C@](C)([C@]2(C)C=C(C)NC(=O)N2)NC(=O)N1</t>
+          <t>CC1=C([C@@H](c2ccc(F)cc2)c2c(C)n[nH]c2[O-])[C@@H](O)N=N1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CC1=C[C@@](C)([C@@]2(C)C=C(C)NC(=O)N2)NC(=O)N1</t>
+          <t>CC1=C([C@@H](c2ccc(F)cc2)c2c(C)n[nH]c2[O-])[C@@H](O)N=N1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4519,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>250.3</v>
+        <v>301.3</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>82.26000000000001</v>
+        <v>96.69</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABE60&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C39422239</t>
+          <t>C02532474</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CC1=C([C@@H](c2ccc(F)cc2)c2c(C)n[nH]c2[O-])[C@@H](O)N=N1</t>
+          <t>CN(C)c1ccc([C@@H]2NNC(=S)N2c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CC1=C([C@@H](c2ccc(F)cc2)c2c(C)n[nH]c2[O-])[C@@H](O)N=N1</t>
+          <t>CN(C)c1ccc([C@@H]2NNC(=S)N2c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4587,13 +4587,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>301.3</v>
+        <v>298.42</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -4605,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>96.69</v>
+        <v>30.54</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABDF0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C02532474</t>
+          <t>C39468964</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc([C@@H]2NNC(=S)N2c2ccccc2)cc1</t>
+          <t>CSC1=C[C@@H]2C[C@@H]3CO[P@](=O)([O-])N[NH+]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc([C@@H]2NNC(=S)N2c2ccccc2)cc1</t>
+          <t>CSC1=C[C@@H]2C[C@@H]3CO[P@](=O)([O-])N[NH+]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>298.42</v>
+        <v>444.47</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>30.54</v>
+        <v>109.2</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABD80&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C04163775</t>
+          <t>C12662714</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(Cl)cc1)[C@H]1[C@H](c2ccccc2F)NC(O)=[NH+][C@@]1([O-])C(F)(F)F</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(Cl)cc1)[C@H]1[C@H](c2ccccc2F)NC(O)=[NH+][C@@]1([O-])C(F)(F)F</t>
+          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>416.76</v>
+        <v>445.63</v>
       </c>
       <c r="H63" t="n">
         <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>86.36</v>
+        <v>96.94</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABD10&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C12662714</t>
+          <t>C35679189</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>[NH3+]CCc1ccc(S(=O)(=O)N[C@@H]2CCS(=O)(=O)C2)s1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>C[C@]12CC/C(=N\NC(N)=S)C[C@@H]1CC[C@@H]1[C@@H]2CC[C@]2(C)[C@@H](C3=CC(=O)OC3)CC[C@@]12O</t>
+          <t>[NH3+]CCc1ccc(S(=O)(=O)N[C@@H]2CCS(=O)(=O)C2)s1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4791,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>445.63</v>
+        <v>325.46</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>96.94</v>
+        <v>107.95</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61B140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABCA0&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C35679189</t>
+          <t>C36242501</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[NH3+]CCc1ccc(S(=O)(=O)N[C@@H]2CCS(=O)(=O)C2)s1</t>
+          <t>Nc1cc(Br)cn2cnnc12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[NH3+]CCc1ccc(S(=O)(=O)N[C@@H]2CCS(=O)(=O)C2)s1</t>
+          <t>Nc1cc(Br)cn2cnnc12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>325.46</v>
+        <v>213.04</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>107.95</v>
+        <v>56.21</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61BBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAC70&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C36242501</t>
+          <t>C39512540</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)cn2cnnc12</t>
+          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)cn2cnnc12</t>
+          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>213.04</v>
+        <v>205.69</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -4942,10 +4942,10 @@
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>56.21</v>
+        <v>43.7</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61BB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAF80&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C39512540</t>
+          <t>C36924377</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
+          <t>C[C@@H]1C[C@H](C)CN(S(N)(=O)=O)C1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
+          <t>C[C@H]1C[C@@H](C)CN(S(N)(=O)=O)C1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>205.69</v>
+        <v>192.28</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>43.7</v>
+        <v>63.4</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAD50&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C36924377</t>
+          <t>C62531602</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H](C)CN(S(N)(=O)=O)C1</t>
+          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C[C@H]1C[C@@H](C)CN(S(N)(=O)=O)C1</t>
+          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>192.28</v>
+        <v>234.3</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>63.4</v>
+        <v>55.56</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAC00&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C62531602</t>
+          <t>C50359907</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
+          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
+          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5131,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>234.3</v>
+        <v>433.49</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>55.56</v>
+        <v>68.77</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB760&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C15078738</t>
+          <t>C03875798</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
+          <t>O=C(N[C@@H](O)C(Cl)(Cl)Cl)N[C@@H](O)C(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
+          <t>O=C(N[C@@H](O)C(Cl)(Cl)Cl)N[C@@H](O)C(Cl)(Cl)Cl</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5199,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>437.59</v>
+        <v>354.83</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>54.44</v>
+        <v>81.59</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61BE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAB20&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5240,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C50359907</t>
+          <t>C39557917</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
+          <t>C[C@@H](NC(=O)N[C@@H]1NN[C@H](c2cccs2)S1)C1=CC2=CC=N[C@@H]2C=C1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
+          <t>C[C@@H](NC(=O)N[C@@H]1NN[C@H](c2cccs2)S1)C1=CC2=CC=N[C@@H]2C=C1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5267,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>433.49</v>
+        <v>373.51</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
         <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>68.77</v>
+        <v>77.55</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAE30&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C03875798</t>
+          <t>C01160868</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H](O)C(Cl)(Cl)Cl)N[C@@H](O)C(Cl)(Cl)Cl</t>
+          <t>Cc1cc2n(n1)[C@](O)(C(F)(F)F)C[C@](O)(C(F)(F)F)N2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H](O)C(Cl)(Cl)Cl)N[C@@H](O)C(Cl)(Cl)Cl</t>
+          <t>Cc1cc2n(n1)[C@](O)(C(F)(F)F)C[C@](O)(C(F)(F)F)N2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5335,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>354.83</v>
+        <v>305.18</v>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>81.59</v>
+        <v>70.31</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABA00&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C01160868</t>
+          <t>C06925575</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cc1cc2n(n1)[C@](O)(C(F)(F)F)C[C@](O)(C(F)(F)F)N2</t>
+          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cc1cc2n(n1)[C@](O)(C(F)(F)F)C[C@](O)(C(F)(F)F)N2</t>
+          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5403,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>305.18</v>
+        <v>349.55</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70.31</v>
+        <v>52.05</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61ADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA9D0&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C06925575</t>
+          <t>C64871494</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
+          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
+          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>349.55</v>
+        <v>387.88</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -5480,16 +5480,16 @@
         <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>52.05</v>
+        <v>51.8</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAF10&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C64871494</t>
+          <t>C20026776</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
+          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
+          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5539,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>387.88</v>
+        <v>396.95</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>51.8</v>
+        <v>97.39</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD61A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB920&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C20026776</t>
+          <t>C53168049</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
+          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
+          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5607,25 +5607,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>396.95</v>
+        <v>246.22</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>97.39</v>
+        <v>59.04</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB990&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C53168049</t>
+          <t>C03107378</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
+          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
+          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5675,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>246.22</v>
+        <v>449.68</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
         <v>2</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>59.04</v>
+        <v>38.39</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB8B0&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C03107378</t>
+          <t>C20344223</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
+          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
+          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5743,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>449.68</v>
+        <v>409.56</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
         <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>38.39</v>
+        <v>55.02</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CAC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB840&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C39412416</t>
+          <t>C22078502</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
+          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
+          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5811,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>399.25</v>
+        <v>368.61</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>97.28</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAA40&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C20344223</t>
+          <t>C16955253</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
+          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
+          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5879,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>409.56</v>
+        <v>490.26</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>55.02</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB6F0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C16955253</t>
+          <t>C22829129</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
+          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
+          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5947,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>490.26</v>
+        <v>382.55</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>68.40000000000001</v>
+        <v>69.12</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABBC0&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C18996973</t>
+          <t>C03642811</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
+          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
+          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>432.07</v>
+        <v>259.28</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>84.5</v>
+        <v>34.4</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB610&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C67187362</t>
+          <t>C20275534</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
+          <t>C[C@@]12CCCC[C@@H]1CC[C@@H]1[C@H]3CC[C@](O)(C[NH+](CCO)CCO)[C@]3(C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
+          <t>C[C@@]12CCCC[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H]1CC[C@]2(O)C[NH+](CCO)CCO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,25 +6083,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>374.51</v>
+        <v>394.62</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
         <v>6</v>
       </c>
-      <c r="J83" t="n">
-        <v>9</v>
-      </c>
       <c r="K83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>86.92</v>
+        <v>65.13</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA960&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C20275534</t>
+          <t>C53069545</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C[C@@]12CCCC[C@@H]1CC[C@@H]1[C@H]3CC[C@](O)(C[NH+](CCO)CCO)[C@]3(C)CC[C@@H]12</t>
+          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C[C@@]12CCCC[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H]1CC[C@]2(O)C[NH+](CCO)CCO</t>
+          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>394.62</v>
+        <v>345.26</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
-        <v>65.13</v>
+        <v>66.3</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB5A0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C53069545</t>
+          <t>C40910111</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
+          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
+          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6219,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>345.26</v>
+        <v>285.35</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>66.3</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB530&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C40910111</t>
+          <t>C65739804</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
+          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
+          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6283,29 +6283,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>285.35</v>
+        <v>208.21</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>89.54000000000001</v>
+        <v>110.38</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB370&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C65739804</t>
+          <t>C08774416</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
+          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
+          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6355,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>208.21</v>
+        <v>338.39</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>110.38</v>
+        <v>80.5</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6384,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66EEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB450&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C08774416</t>
+          <t>C21513303</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
+          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
+          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>338.39</v>
+        <v>309.18</v>
       </c>
       <c r="H88" t="n">
         <v>3</v>
@@ -6435,13 +6435,13 @@
         <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
         <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>80.5</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB3E0&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C21513303</t>
+          <t>C38108187</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
+          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
+          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6491,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>309.18</v>
+        <v>333.8</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>76.29000000000001</v>
+        <v>121.55</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABAE0&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C38108187</t>
+          <t>C62580541</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
+          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
+          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6559,25 +6559,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>333.8</v>
+        <v>406.55</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
         <v>5</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>121.55</v>
+        <v>88.94</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB300&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C62580541</t>
+          <t>C38743815</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6608,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
+          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
+          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6627,25 +6627,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>406.55</v>
+        <v>228.33</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91" t="n">
         <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>88.94</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6656,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABA70&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C38743815</t>
+          <t>C43284207</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
+          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
+          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6695,25 +6695,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>228.33</v>
+        <v>375.34</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>78.04000000000001</v>
+        <v>105.46</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6724,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB290&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C43284207</t>
+          <t>C49025558</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
+          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
+          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6763,25 +6763,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>375.34</v>
+        <v>292.33</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>105.46</v>
+        <v>77.05</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6792,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB220&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C49025558</t>
+          <t>C40466450</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6812,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
+          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
+          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6831,25 +6831,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>292.33</v>
+        <v>520.6900000000001</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>77.05</v>
+        <v>99.25</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAFF0&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6872,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C40466450</t>
+          <t>CHEMBL487191</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6880,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
+          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
+          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6895,40 +6895,66 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>520.6900000000001</v>
+        <v>312.32</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>99.25</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
+        <v>80.65000000000001</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>130000</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>CHEMBL998215</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Inhibition of human recombinant MK2 by ELISA</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB1B0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6940,7 +6966,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL487191</t>
+          <t>CHEMBL1813799</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6948,12 +6974,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
+          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
+          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6967,29 +6993,29 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>312.32</v>
+        <v>279.3</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>3</v>
       </c>
       <c r="M96" t="n">
-        <v>80.65000000000001</v>
+        <v>71.84</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -6999,20 +7025,20 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>130000</v>
+        <v>8</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>CHEMBL998215</t>
+          <t>CHEMBL1815689</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant MK2 by ELISA</t>
+          <t>Inhibition of MAPKAPK2 at 30 uM by microfluidic mobility shift assay</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -7022,7 +7048,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB0D0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7034,7 +7060,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL1813799</t>
+          <t>CHEMBL2425144</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7042,12 +7068,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
+          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
+          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7061,25 +7087,25 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>279.3</v>
+        <v>481.56</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
-        <v>71.84</v>
+        <v>128.57</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7097,16 +7123,16 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>CHEMBL1815689</t>
+          <t>CHEMBL2429596</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAPK2 at 30 uM by microfluidic mobility shift assay</t>
+          <t>Inhibition of MAPKAP-K2 (unknown origin) at 1 uM by [33P]-ATP filter-binding assay</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -7116,7 +7142,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D1C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAB90&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7128,7 +7154,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL2425144</t>
+          <t>CHEMBL483518</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7136,12 +7162,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
+          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
+          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7155,25 +7181,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>481.56</v>
+        <v>448.53</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>128.57</v>
+        <v>125.63</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7191,16 +7217,16 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>CHEMBL2429596</t>
+          <t>CHEMBL953383</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAP-K2 (unknown origin) at 1 uM by [33P]-ATP filter-binding assay</t>
+          <t>Inhibition of MAPKAPK2 at 10 uM by HTRF assay relative to control</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -7210,7 +7236,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA880&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7222,7 +7248,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL483518</t>
+          <t>CHEMBL407373</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7230,12 +7256,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
+          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
+          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7249,25 +7275,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>448.53</v>
+        <v>298.32</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
         <v>3</v>
       </c>
       <c r="M99" t="n">
-        <v>125.63</v>
+        <v>70.67</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7285,16 +7311,16 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>CHEMBL953383</t>
+          <t>CHEMBL732487</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAPK2 at 10 uM by HTRF assay relative to control</t>
+          <t>Inhibition of MAPKAP-K2 in presence of 10 uM ATP</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -7304,7 +7330,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA810&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7316,7 +7342,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL3629317</t>
+          <t>CHEMBL1170747</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7324,12 +7350,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
+          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
+          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7343,25 +7369,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>304.77</v>
+        <v>290.33</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
         <v>3</v>
       </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>89.61</v>
+        <v>84.89</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7379,16 +7405,16 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>CHEMBL3630369</t>
+          <t>CHEMBL1173992</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>Inhibition of MK2 (unknown origin) at 20 uM by scintillation proximity assay</t>
+          <t>Inhibition of MAPKAP2 at 10 uM by mobility shift assay</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -7398,7 +7424,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA7A0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7410,7 +7436,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL1170747</t>
+          <t>CHEMBL187985</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7418,12 +7444,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7437,13 +7463,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>290.33</v>
+        <v>299.34</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
@@ -7452,10 +7478,10 @@
         <v>4</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M101" t="n">
-        <v>84.89</v>
+        <v>98.89</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7473,16 +7499,16 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>5</v>
+        <v>-1.46</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>CHEMBL1173992</t>
+          <t>CHEMBL1961968</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAP2 at 10 uM by mobility shift assay</t>
+          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -7492,7 +7518,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA730&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7504,7 +7530,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL187985</t>
+          <t>CHEMBL218932</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7512,12 +7538,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7531,25 +7557,25 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>299.34</v>
+        <v>339.4</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>98.89</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7567,16 +7593,16 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>-1.46</v>
+        <v>-2.02</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>CHEMBL1961968</t>
+          <t>CHEMBL1961969</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -7586,7 +7612,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA6C0&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7598,7 +7624,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL1909403</t>
+          <t>CHEMBL268885</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7606,12 +7632,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7625,25 +7651,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>431.39</v>
+        <v>416.89</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" t="n">
         <v>5</v>
       </c>
-      <c r="J103" t="n">
-        <v>6</v>
-      </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>75.34</v>
+        <v>112.48</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7661,7 +7687,7 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>0.82</v>
+        <v>2.94</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7680,198 +7706,10 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA5E0&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL218932</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>339.4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2</v>
-      </c>
-      <c r="M104" t="n">
-        <v>80.31999999999999</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CD60&gt;</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CHEMBL268885</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>416.89</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>3</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>112.48</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C0B0&gt;</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_train.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_train.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL555205</t>
+          <t>CHEMBL561334</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CN)NC3=O</t>
+          <t>C[C@H]1CNc2c(sc3ccc4ncccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CN)NC3=O</t>
+          <t>C[C@H]1CNc2c(sc3ccc4ncccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>277.35</v>
+        <v>283.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>76.38</v>
+        <v>54.02</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC2E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0350&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC03C0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL272309</t>
+          <t>CHEMBL403286</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4cccnc4)cc3n2C1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(Cc6ccccc6)CC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4cccnc4)cc3n2C1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(Cc6ccccc6)CC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>349.39</v>
+        <v>542.67</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>102.04</v>
+        <v>108.36</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1620&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL516802</t>
+          <t>CHEMBL272309</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1)N1CCOCC1</t>
+          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4cccnc4)cc3n2C1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1)N1CCOCC1</t>
+          <t>NCC1CNC(=O)c2cc3ccc(C(=O)Nc4cccnc4)cc3n2C1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>427.46</v>
+        <v>349.39</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>103.97</v>
+        <v>102.04</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1770&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL226350</t>
+          <t>CHEMBL516802</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc5ccccc5c4)c3)cc21</t>
+          <t>O=C(c1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc5ccccc5c4)c3)cc21</t>
+          <t>O=C(c1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1)N1CCOCC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>339.4</v>
+        <v>427.46</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>57.78</v>
+        <v>103.97</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1CB0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL461316</t>
+          <t>CHEMBL246300</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CCN(CC)Cc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCN(CC)Cc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>399.5</v>
+        <v>451.55</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>77.67</v>
+        <v>115.98</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1D20&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL404224</t>
+          <t>CHEMBL226350</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4nccs4)cc32)C(=O)N1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc5ccccc5c4)c3)cc21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4nccs4)cc32)C(=O)N1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc5ccccc5c4)c3)cc21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>341.4</v>
+        <v>339.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>102.04</v>
+        <v>57.78</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1D90&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL225519</t>
+          <t>CHEMBL610780</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
+          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCC4)c(N)n2)cc1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
+          <t>COc1ccc(-n2cc(-c3ccc4c(c3)C(=O)NCC4)c(N)n2)cc1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>213.24</v>
+        <v>334.38</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>57.78</v>
+        <v>82.17</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2F80&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL361425</t>
+          <t>CHEMBL404224</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3ccc(O)cc3OC2C=C1N</t>
+          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4nccs4)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3ccc(O)cc3OC2C=C1N</t>
+          <t>NC[C@@H]1Cn2c(cc3ccc(C(=O)Nc4nccs4)cc32)C(=O)N1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>255.28</v>
+        <v>341.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>105.29</v>
+        <v>102.04</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBCA50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2FF0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL255210</t>
+          <t>CHEMBL225519</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccnc1)c1ccc2cc3n(c2c1)CCCNC3=O</t>
+          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccnc1)c1ccc2cc3n(c2c1)CCCNC3=O</t>
+          <t>O=C1NCCc2[nH]c(-c3ccncc3)cc21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>320.35</v>
+        <v>213.24</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>76.02</v>
+        <v>57.78</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC3140&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL467532</t>
+          <t>CHEMBL361425</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CC(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
+          <t>N#CC1=C(N)C2Cc3ccc(O)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
+          <t>N#CC1=C(N)C2Cc3ccc(O)cc3OC2C=C1N</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>309.32</v>
+        <v>255.28</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>91.31999999999999</v>
+        <v>105.29</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0270&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL1208950</t>
+          <t>CHEMBL599682</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Br)cc5)cc34)cc2)CC1</t>
+          <t>COc1cccc(-c2cccc(-n3cc(-c4ccc5c(c4)CCNC5=O)c(N)n3)c2)c1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Br)cc5)cc34)cc2)CC1</t>
+          <t>COc1cccc(-c2cccc(-n3cc(-c4ccc5c(c4)CCNC5=O)c(N)n3)c2)c1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>473.42</v>
+        <v>410.48</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>31.4</v>
+        <v>82.17</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0430&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL181069</t>
+          <t>CHEMBL467532</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc4c(cc3OC2C=C1N)OCCO4</t>
+          <t>CC(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc4c(cc3OC2C=C1N)OCCO4</t>
+          <t>CC(Nc1c(Nc2ccncc2)c(=O)c1=O)c1cccc(O)c1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>297.31</v>
+        <v>309.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>103.52</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC6D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC04A0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL226232</t>
+          <t>CHEMBL1208950</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(Cl)c3)cc21</t>
+          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Br)cc5)cc34)cc2)CC1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(Cl)c3)cc21</t>
+          <t>CN1CCN(c2ccc(Nc3ccnc4ccc(-c5ccc(Br)cc5)cc34)cc2)CC1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>247.69</v>
+        <v>473.42</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>57.78</v>
+        <v>31.4</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC05F0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL178413</t>
+          <t>CHEMBL181069</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc(O)c(C4COCCO4)cc3OC2C=C1N</t>
+          <t>N#CC1=C(N)C2Cc3cc4c(cc3OC2C=C1N)OCCO4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C2Cc3cc(O)c(C4COCCO4)cc3OC2C=C1N</t>
+          <t>N#CC1=C(N)C2Cc3cc4c(cc3OC2C=C1N)OCCO4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>341.37</v>
+        <v>297.31</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>123.75</v>
+        <v>103.52</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0660&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL247509</t>
+          <t>CHEMBL226232</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccncc4)cc3c21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(Cl)c3)cc21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccncc4)cc3c21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(Cl)c3)cc21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>320.35</v>
+        <v>247.69</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>86.88</v>
+        <v>57.78</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC07B0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL258045</t>
+          <t>CHEMBL592031</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,26 +1644,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
+          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC1CCNCC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
+          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC1CCNCC1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>492.61</v>
+        <v>493.64</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -1672,16 +1672,16 @@
         <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
         <v>6</v>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
       <c r="M18" t="n">
-        <v>108.36</v>
+        <v>97.44</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0820&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0890&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0B30&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL549915</t>
+          <t>CHEMBL554286</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1ccncc1-c1ccc2c(ccc3sc4c(c32)NC[C@H](C)NC4=O)n1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5F)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1ccncc1-c1ccc2c(ccc3sc4c(c32)NC[C@H](C)NC4=O)n1</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5F)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>374.47</v>
+        <v>377.44</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>66.91</v>
+        <v>54.02</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0BA0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL226403</t>
+          <t>CHEMBL594090</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cnc5ccccc5c4)c3)cc21</t>
+          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC(=O)O</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cnc5ccccc5c4)c3)cc21</t>
+          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC(=O)O</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>340.39</v>
+        <v>454.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>70.67</v>
+        <v>122.71</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBD620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC0DD0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL246301</t>
+          <t>CHEMBL374177</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCN(C)CC5)cs4)cc3c21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc(O)cc4)c3)cc21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCN(C)CC5)cs4)cc3c21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc(O)cc4)c3)cc21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>466.57</v>
+        <v>305.34</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>119.22</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1000&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL554286</t>
+          <t>CHEMBL271863</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5F)ccc4c23)C(=O)N1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NCC(C)(C)C)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5F)ccc4c23)C(=O)N1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NCC(C)(C)C)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>377.44</v>
+        <v>439.54</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>54.02</v>
+        <v>105.12</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1070&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL553397</t>
+          <t>CHEMBL226321</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CO)NC3=O</t>
+          <t>O=C(NCCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1ccc2sc3c(c2c1)NC[C@@H](CO)NC3=O</t>
+          <t>O=C(NCCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>278.33</v>
+        <v>436.52</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>70.59</v>
+        <v>86.88</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC10E0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL409727</t>
+          <t>CHEMBL225975</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cccnc4)c3)cc21</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cccnc4)c3)cc21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>451.55</v>
+        <v>290.33</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>105.12</v>
+        <v>70.67</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1150&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL374177</t>
+          <t>CHEMBL403193</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc(O)cc4)c3)cc21</t>
+          <t>O=C(Nc1nccs1)c1ccc2cc3n(c2c1)CC(CO)CNC3=O</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccc(O)cc4)c3)cc21</t>
+          <t>O=C(Nc1nccs1)c1ccc2cc3n(c2c1)CC(CO)CNC3=O</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>305.34</v>
+        <v>356.41</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>78.01000000000001</v>
+        <v>96.25</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1310&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL226321</t>
+          <t>CHEMBL376384</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O=C(NCCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CN(Cc1ccccc1)C(=O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O=C(NCCc1ccccc1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CN(Cc1ccccc1)C(=O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2346,13 +2346,13 @@
         <v>436.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
         <v>5</v>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>86.88</v>
+        <v>78.09</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1380&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL403193</t>
+          <t>CHEMBL597839</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O=C(Nc1nccs1)c1ccc2cc3n(c2c1)CC(CO)CNC3=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4cc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>O=C(Nc1nccs1)c1ccc2cc3n(c2c1)CC(CO)CNC3=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4cc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>356.41</v>
+        <v>419.49</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>96.25</v>
+        <v>88.73</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC14D0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL376384</t>
+          <t>CHEMBL388391</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CN(Cc1ccccc1)C(=O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccsc4)c3)cc21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CN(Cc1ccccc1)C(=O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4ccsc4)c3)cc21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>436.52</v>
+        <v>295.37</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>78.09</v>
+        <v>57.78</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC15B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL597839</t>
+          <t>CHEMBL597640</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4cc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4nc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4cc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4nc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>419.49</v>
+        <v>420.48</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>88.73</v>
+        <v>101.62</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB90EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1690&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL461140</t>
+          <t>CHEMBL390601</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cncnc4)c3)cc21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CN(C)CCOc1ccc(/C=C/c2cc(-c3cc4c(=O)[nH]cnc4[nH]3)ccn2)cc1</t>
+          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cncnc4)c3)cc21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>401.47</v>
+        <v>291.31</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>86.90000000000001</v>
+        <v>83.56</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB83ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC18C0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL597640</t>
+          <t>CHEMBL598324</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4nc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4c(c3)NC(=O)C4)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4nc[nH]c4c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Nc1nn(-c2cccc(-c3ccc4c(c3)NC(=O)C4)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>420.48</v>
+        <v>435.49</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -2698,10 +2698,10 @@
         <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>101.62</v>
+        <v>102.04</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1C40&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL390601</t>
+          <t>CHEMBL397642</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cncnc4)c3)cc21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)N5CCC(N(C)C)CC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cncnc4)c3)cc21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)N5CCC(N(C)C)CC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,25 +2751,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>291.31</v>
+        <v>480.59</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>83.56</v>
+        <v>110.43</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC1E00&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL603694</t>
+          <t>CHEMBL604510</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3cccc(O)c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Cn1ccc2ccc(-c3cccc(-n4cc(-c5ccc6c(c5)CCNC6=O)c(N)n4)c3)cc21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3cccc(O)c3)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>Cn1ccc2ccc(-c3cccc(-n4cc(-c5ccc6c(c5)CCNC6=O)c(N)n4)c3)cc21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>396.45</v>
+        <v>433.52</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
       </c>
       <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
         <v>5</v>
       </c>
-      <c r="L35" t="n">
-        <v>4</v>
-      </c>
       <c r="M35" t="n">
-        <v>93.17</v>
+        <v>77.87</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2110&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL598324</t>
+          <t>CHEMBL392596</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4c(c3)NC(=O)C4)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cnccn4)cc3c21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nc1nn(-c2cccc(-c3ccc4c(c3)NC(=O)C4)c2)cc1-c1ccc2c(c1)CCNC2=O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cnccn4)cc3c21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>435.49</v>
+        <v>321.34</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -2896,16 +2896,16 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>102.04</v>
+        <v>99.77</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2180&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL397642</t>
+          <t>CHEMBL442419</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)N5CCC(N(C)C)CC5)cs4)cc3c21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccc(C(N)=O)cc4)cc3c21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)N5CCC(N(C)C)CC5)cs4)cc3c21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccc(C(N)=O)cc4)cc3c21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>480.59</v>
+        <v>362.39</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>110.43</v>
+        <v>117.08</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2340&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL392596</t>
+          <t>CHEMBL246910</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cnccn4)cc3c21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccc(C#N)c4)cc3c21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cnccn4)cc3c21</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4cccc(C#N)c4)cc3c21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,13 +3023,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>321.34</v>
+        <v>344.37</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>99.77</v>
+        <v>97.78</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC23B0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL560075</t>
+          <t>CHEMBL257834</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cccnc5)ccc4c23)C(=O)N1</t>
+          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cccnc5)ccc4c23)C(=O)N1</t>
+          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>360.44</v>
+        <v>548.71</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>66.91</v>
+        <v>108.36</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2420&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL226206</t>
+          <t>CHEMBL272072</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C(NC1CC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCOCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C(NC1CC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCOCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>372.43</v>
+        <v>453.52</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>86.88</v>
+        <v>114.35</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC25E0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL396160</t>
+          <t>CHEMBL552339</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN)cs4)cc3c21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccncc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN)cs4)cc3c21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccncc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>412.48</v>
+        <v>360.44</v>
       </c>
       <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
         <v>5</v>
       </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4</v>
-      </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>142</v>
+        <v>66.91</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2650&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL590109</t>
+          <t>CHEMBL226206</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>O=C(NC1CC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NCCn1cc(-c2cc(-c3cc4ccccc4s3)c3[nH]ncc3c2)c2nc(N)ncc21</t>
+          <t>O=C(NC1CC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>425.52</v>
+        <v>372.43</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>111.43</v>
+        <v>86.88</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EC2B90&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C17105438</t>
+          <t>C16955399</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=S)cnn1[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+          <t>O=[S@](O)c1cc2cc([S@@](=O)O)ccc2cc1O</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O=c1[nH]c(=S)cnn1[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
+          <t>O=[S@@](O)c1ccc2cc(O)c([S@](=O)O)cc2c1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>261.26</v>
+        <v>272.3</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>2</v>
@@ -3378,10 +3378,10 @@
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>120.6</v>
+        <v>94.83</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E687B0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C16955399</t>
+          <t>C63084333</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>O=[S@](O)c1cc2cc([S@@](=O)O)ccc2cc1O</t>
+          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>O=[S@@](O)c1ccc2cc(O)c([S@](=O)O)cc2c1</t>
+          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>272.3</v>
+        <v>277.32</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>94.83</v>
+        <v>123.22</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B920&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C63084333</t>
+          <t>C13282089</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
+          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cn1ncc2c(NN)nc(CSc3ncn[nH]3)nc21</t>
+          <t>NC1=[NH+]c2nc3ccccc3n2[C@H](c2ccc(-c3ccc(Br)cc3)o2)N1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>277.32</v>
+        <v>409.27</v>
       </c>
       <c r="H45" t="n">
         <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>123.22</v>
+        <v>82.98</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68BA0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6A9D0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6BE60&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B8B0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C42169910</t>
+          <t>C55024355</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
+          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
+          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>269.37</v>
+        <v>299.38</v>
       </c>
       <c r="H49" t="n">
         <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>92.04000000000001</v>
+        <v>106.07</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69FC0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C55024355</t>
+          <t>C50200181</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
+          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])C[C@H](Sc1ncnc2nc[nH]c12)c1ccccc1</t>
+          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>299.38</v>
+        <v>327.43</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
         <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>106.07</v>
+        <v>97.87</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B680&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C50200181</t>
+          <t>C20650058</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
+          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>N#Cc1c([N-]S(=O)(=O)C2CCOCC2)sc2c1CC[NH2+]C2</t>
+          <t>COc1ccc(Nc2nc(NCC[NH+](C)C)c3c(c2C#N)CC(C)(C)OC3)cc1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>327.43</v>
+        <v>396.52</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
         <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>97.87</v>
+        <v>83.64</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E698C0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6A960&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69620&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68660&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68580&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69380&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E697E0&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6A7A0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C19219727</t>
+          <t>C12555717</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
+          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
+          <t>Nc1ncnc2sc3c(c12)CCN(C(=O)/C=C/c1ccccc1F)C3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>443.57</v>
+        <v>354.41</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>69.92</v>
+        <v>72.11</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B6F0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69690&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69AF0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68890&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6BAE0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E686D0&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C36242501</t>
+          <t>C39512540</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)cn2cnnc12</t>
+          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)cn2cnnc12</t>
+          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>213.04</v>
+        <v>205.69</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -4874,10 +4874,10 @@
         <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>56.21</v>
+        <v>43.7</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B220&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C39512540</t>
+          <t>C36924377</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
+          <t>C[C@@H]1C[C@H](C)CN(S(N)(=O)=O)C1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>O[C@H]1CCCN(O)[C@]12CC[C@H](Cl)C2</t>
+          <t>C[C@H]1C[C@@H](C)CN(S(N)(=O)=O)C1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>205.69</v>
+        <v>192.28</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>43.7</v>
+        <v>63.4</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69850&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C36924377</t>
+          <t>C62531602</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H](C)CN(S(N)(=O)=O)C1</t>
+          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C[C@H]1C[C@@H](C)CN(S(N)(=O)=O)C1</t>
+          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>192.28</v>
+        <v>234.3</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>63.4</v>
+        <v>55.56</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8200&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C62531602</t>
+          <t>C15078738</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
+          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Cc1c(C)c2c(c(C)c1N)OCCC(=O)N2C</t>
+          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>234.3</v>
+        <v>437.59</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>55.56</v>
+        <v>54.44</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8270&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C50359907</t>
+          <t>C36769023</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
+          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
+          <t>CC[C@H]1CN([C@@H](C)C(=O)Nc2ccc(Cl)cc2N)CCO1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5131,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>433.49</v>
+        <v>311.81</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>68.77</v>
+        <v>67.59</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8190&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8350&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8120&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F80B0&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C06925575</t>
+          <t>C37538773</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
+          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
+          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5403,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>349.55</v>
+        <v>442.55</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>52.05</v>
+        <v>125.68</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F83C0&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C64871494</t>
+          <t>C39652797</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
+          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
+          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5471,25 +5471,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>387.88</v>
+        <v>487.62</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>51.8</v>
+        <v>88.14</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8430&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C20026776</t>
+          <t>C16929761</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
+          <t>COc1cc(/C=C2\SC(=S)N(NC(=O)c3ccc(O)cc3)C2=O)cc(OC)c1O</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
+          <t>COc1cc(/C=C2\SC(=S)N(NC(=O)c3ccc(O)cc3)C2=O)cc(OC)c1O</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5539,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>396.95</v>
+        <v>432.48</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
         <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>97.39</v>
+        <v>108.33</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F82E0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C53168049</t>
+          <t>C64871494</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
+          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
+          <t>Nc1c(Br)c(Br)c2nsnc2c1Br</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>246.22</v>
+        <v>387.88</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>2</v>
@@ -5625,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>59.04</v>
+        <v>51.8</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058F8040&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C03107378</t>
+          <t>C20026776</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
+          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
+          <t>CC(C)(C)[C@H]1CC=C2[C@H](C1)[C@@H](c1ccc(Cl)s1)C(C#N)=C(N)C2(C#N)C#N</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5675,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>449.68</v>
+        <v>396.95</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>38.39</v>
+        <v>97.39</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0580&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C20344223</t>
+          <t>C43410998</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
+          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
+          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5743,10 +5743,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>409.56</v>
+        <v>318.83</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>4</v>
@@ -5755,13 +5755,13 @@
         <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>55.02</v>
+        <v>48.14</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0B30&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C22078502</t>
+          <t>C53168049</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
+          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
+          <t>N#Cc1ccc(Oc2c(N)ccc(F)c2F)cc1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5811,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>368.61</v>
+        <v>246.22</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>8.880000000000001</v>
+        <v>59.04</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0EB0&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C16955253</t>
+          <t>C03107378</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
+          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
+          <t>CC(C)(C)c1cc(-c2c[nH]c(-c3cc(C(C)(C)C)[o+]c(C(C)(C)C)c3)c2)cc(C(C)(C)C)[o+]1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5879,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>490.26</v>
+        <v>449.68</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
         <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>68.40000000000001</v>
+        <v>38.39</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1150&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C22829129</t>
+          <t>C39412416</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
+          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
+          <t>Cc1ccc2c(c1)=C1N=NC(N/N=C/c3cc(Br)ccc3O)=[NH+][C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5947,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>382.55</v>
+        <v>399.25</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>69.12</v>
+        <v>97.28</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0510&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C03642811</t>
+          <t>C20344223</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
+          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
+          <t>Cc1cc(O)oc2c/c(=[NH+]/C(=S)N3CC[NH+](CCc4ccccc4)CC3)ccc1-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>259.28</v>
+        <v>409.56</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
         <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>34.4</v>
+        <v>55.02</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0C10&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C20275534</t>
+          <t>C22078502</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C[C@@]12CCCC[C@@H]1CC[C@@H]1[C@H]3CC[C@](O)(C[NH+](CCO)CCO)[C@]3(C)CC[C@@H]12</t>
+          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C[C@@]12CCCC[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H]1CC[C@]2(O)C[NH+](CCO)CCO</t>
+          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,25 +6083,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>394.62</v>
+        <v>368.61</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>65.13</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0660&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C53069545</t>
+          <t>C16955253</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
+          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
+          <t>Oc1c(Cl)cc(Cl)cc1/C=[NH+]/CC1CCC(C/[NH+]=C/c2cc(Cl)cc(Cl)c2O)CC1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>345.26</v>
+        <v>490.26</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>66.3</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B04A0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C40910111</t>
+          <t>C18996973</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
+          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
+          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6219,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>285.35</v>
+        <v>432.07</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
         <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>89.54000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0CF0&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6260,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C65739804</t>
+          <t>C22829129</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
+          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
+          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6283,29 +6283,29 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>208.21</v>
+        <v>382.55</v>
       </c>
       <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
         <v>5</v>
       </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
       <c r="J86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>110.38</v>
+        <v>69.12</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6316,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0740&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C08774416</t>
+          <t>C67187362</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
+          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
+          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6351,29 +6351,29 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>338.39</v>
+        <v>374.51</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>80.5</v>
+        <v>86.92</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6384,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0F90&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C21513303</t>
+          <t>C03642811</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
+          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
+          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6419,29 +6419,29 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>309.18</v>
+        <v>259.28</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>76.29000000000001</v>
+        <v>34.4</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6452,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0430&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C38108187</t>
+          <t>C53069545</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
+          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
+          <t>OCC1([NH2+]C[C@@H](O)COc2ccc(Br)cc2)CCCC1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6487,20 +6487,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>333.8</v>
+        <v>345.26</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>121.55</v>
+        <v>66.3</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6520,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0900&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6532,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C62580541</t>
+          <t>C40910111</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
+          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
+          <t>CC(C)(NC(=O)[C@@H]1CS[C@@]2(C)CCC(=O)N12)C(=O)[O-]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6555,29 +6555,29 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>406.55</v>
+        <v>285.35</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>88.94</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B09E0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C38743815</t>
+          <t>C65739804</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6608,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
+          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
+          <t>C[C@@]1(O)C[C@H](O)[C@H](O)[C@H]([C@H](O)CO)O1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6627,25 +6627,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>228.33</v>
+        <v>208.21</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>78.04000000000001</v>
+        <v>110.38</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6656,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBABA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0F20&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6668,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C43284207</t>
+          <t>C40758142</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
+          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
+          <t>Cc1cccnc1Nc1ncnc(Nc2ccc(Br)cc2F)c1N</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6695,25 +6695,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>375.34</v>
+        <v>389.23</v>
       </c>
       <c r="H92" t="n">
         <v>3</v>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>105.46</v>
+        <v>88.75</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6724,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0350&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C49025558</t>
+          <t>C08774416</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
+          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
+          <t>NC1=[NH+]/C(=N\N=c2\[nH]c(-c3ccc(F)cc3)cs2)c2ccccc21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6763,25 +6763,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>292.33</v>
+        <v>338.39</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>77.05</v>
+        <v>80.5</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6792,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0DD0&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C40466450</t>
+          <t>C21513303</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6812,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
+          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
+          <t>[NH3+][C@H](c1ccc2[nH]c(=O)[nH]c2c1)c1ccc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6831,25 +6831,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>520.6900000000001</v>
+        <v>309.18</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94" t="n">
-        <v>99.25</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0970&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6872,7 +6872,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL487191</t>
+          <t>C38108187</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6880,12 +6880,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
+          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CCCc1cc(=O)c2c(Cc3cc(O)cc(=O)o3)cccc2o1</t>
+          <t>NC(=O)C[NH+]1CCC([N-]S(=O)(=O)c2cnc(Cl)nc2)CC1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6895,66 +6895,40 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>312.32</v>
+        <v>333.8</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
         <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>80.65000000000001</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>130000</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>CHEMBL998215</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2 by ELISA</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>121.55</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B05F0&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6966,7 +6940,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL1813799</t>
+          <t>C62580541</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6974,12 +6948,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
+          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cn1nc2c3c(nc(-c4ccccc4)cc31)NCC(=O)N2</t>
+          <t>COC(=O)CC1CC[NH+]([C@H](C)C(=O)NC(=O)NC23CC4CC(CC(C4)C2)C3)CC1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6989,66 +6963,40 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>279.3</v>
+        <v>406.55</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>71.84</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>8</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>CHEMBL1815689</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>88.94</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0AC0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7060,7 +7008,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL2425144</t>
+          <t>C38743815</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7068,12 +7016,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
+          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2ccc(-n3cnc4c(N)ncnc43)cc2)cc1</t>
+          <t>CC(C)C1=C[C@@H]([C@H]2NN[C@H](S)N2N)N=N1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7083,66 +7031,40 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>481.56</v>
+        <v>228.33</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>128.57</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>-13</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>CHEMBL2429596</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 (unknown origin) at 1 uM by [33P]-ATP filter-binding assay</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>78.04000000000001</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0820&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7154,7 +7076,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL483518</t>
+          <t>C05259828</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7162,12 +7084,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
+          <t>Nc1nc(Cn2cc(C(F)(F)F)cc(Cl)c2=O)nc(Nc2ccccc2)n1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
+          <t>Nc1nc(Cn2cc(C(F)(F)F)cc(Cl)c2=O)nc(Nc2ccccc2)n1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7177,66 +7099,40 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>448.53</v>
+        <v>396.76</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>3</v>
       </c>
       <c r="M98" t="n">
-        <v>125.63</v>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>CHEMBL953383</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>98.72</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B0E40&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7248,7 +7144,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL407373</t>
+          <t>C09092219</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7256,12 +7152,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>C[C@H]1CCCC[C@H]1NC(=O)CSc1nnc(-c2ccccc2Br)n1N</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>C[C@H]1CCCC[C@H]1NC(=O)CSc1nnc(-c2ccccc2Br)n1N</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7271,66 +7167,40 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>298.32</v>
+        <v>424.37</v>
       </c>
       <c r="H99" t="n">
         <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
         <v>3</v>
       </c>
       <c r="L99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q99" t="n">
-        <v>5</v>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CHEMBL732487</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP-K2 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>85.83</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B06D0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7342,7 +7212,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL1170747</t>
+          <t>C05478046</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7350,12 +7220,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
+          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7365,66 +7235,40 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>290.33</v>
+        <v>289.29</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>4</v>
       </c>
       <c r="L100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>84.89</v>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q100" t="n">
-        <v>5</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>CHEMBL1173992</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAP2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>98.06999999999999</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B07B0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7436,7 +7280,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CHEMBL187985</t>
+          <t>C40466450</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7444,12 +7288,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
+          <t>C[C@]12CCC(=O)C=C1CC[C@@H]1C2=CC[C@@]2(C)[C@H]1CC[C@]2(O)C(=O)CN1CC[NH+](Cc2[nH+]cccc2[O-])CC1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7459,66 +7303,40 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>299.34</v>
+        <v>520.6900000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q101" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>CHEMBL1961968</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.25</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B3ED0&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7530,7 +7348,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHEMBL218932</t>
+          <t>C24273519</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7538,12 +7356,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
+          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CNC(=O)Oc1cc(C)c(/C=C/c2cncc(C(=O)NC)c2)c(C)c1</t>
+          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7553,20 +7371,20 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>339.4</v>
+        <v>429.42</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
@@ -7575,44 +7393,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>80.31999999999999</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>104.37</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B1000&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7624,7 +7416,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHEMBL268885</t>
+          <t>C39973096</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7632,12 +7424,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
+          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>COc1c(C(N)=O)cc(-c2ccc(Cl)cc2)cc1-c1ccc(S(N)(=O)=O)cc1</t>
+          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7647,66 +7439,40 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>416.89</v>
+        <v>449.51</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
         <v>5</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
-        <v>112.48</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.8</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E5058B03C0&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
